--- a/ComparisonAgent_Output/DI Synapse To Bigquery Conversion_comparison/aava_enterprise_comparison_agent.xlsx
+++ b/ComparisonAgent_Output/DI Synapse To Bigquery Conversion_comparison/aava_enterprise_comparison_agent.xlsx
@@ -9,21 +9,18 @@
   <sheets>
     <sheet name="Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Table_1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2_COMPARISON_SCOPE" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Table_2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Table_3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="4_DIMENSIONBASED_COMPARISON" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="5_OVERALL_COMPARISON_RESULTS" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="6_FILELEVEL_COMPARISON_COMPONEN" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Component_Recon_Tester" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Component_Conversion_Tester" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Component_Unit_Test" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Component_Converter" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Component_Reviewer" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Overall_Migration_Risk_Level_LO" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Table_4" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="10_FINAL_RECOMMENDATION_CLOSING" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Table_5" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Scope_Summary_Table" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Matching_Confidence_Distributio" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Table_2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="SECTION_4_DIMENSIONBASED_COMPAR" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="SECTION_5_OVERALL_COMPARISON_RE" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Table_3" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Component_Conversion_Tester" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Component_Converter" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Overall_Migration_Risk_Level_LO" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Table_4" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="SECTION_10_FINAL_RECOMMENDATION" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Table_5" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -473,7 +470,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-12 03:42:01</t>
+          <t>2026-01-16 01:17:06</t>
         </is>
       </c>
     </row>
@@ -484,7 +481,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -507,9 +504,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="49" customWidth="1" min="2" max="2"/>
-    <col width="49" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="42" customWidth="1" min="2" max="2"/>
+    <col width="42" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,12 +539,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Azure_Synapse_To_Bigquery_Conversion_Tester.txt</t>
+          <t>_Azure_Synapse_To_Bigquery_Converter.txt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>azure_synapse_to_bigquery_conversion_tester.txt</t>
+          <t>_azure_synapse_to_bigquery_converter.txt</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -564,17 +561,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>410</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>412</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+78 / +18.7%</t>
+          <t>+2 / +0.5%</t>
         </is>
       </c>
     </row>
@@ -586,17 +583,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>+2</t>
+          <t>±0</t>
         </is>
       </c>
     </row>
@@ -608,17 +605,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>+0.2</t>
+          <t>±0</t>
         </is>
       </c>
     </row>
@@ -657,7 +654,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -679,7 +676,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -701,7 +698,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -728,7 +725,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>90.0%</t>
+          <t>97.1%</t>
         </is>
       </c>
     </row>
@@ -750,7 +747,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93/100</t>
+          <t>95/100</t>
         </is>
       </c>
     </row>
@@ -765,7 +762,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -773,251 +770,97 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="40" customWidth="1" min="2" max="2"/>
-    <col width="40" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="32" customWidth="1" min="3" max="3"/>
+    <col width="30" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Aspect</t>
+          <t>Risk Factor</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>AAVA 1.0</t>
+          <t>Risk Level</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>AAVA 2.0</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Change</t>
+          <t>Mitigation</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>Formatting Changes</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Azure_Synapse_To_Bigquery_UnitTest.txt</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>azure_synapse_to_bigquery_unittest.txt</t>
+          <t>Minor differences in code</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Peer review, automated tests</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Lines of Code</t>
+          <t>Error Handling</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>Improved exception logic</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+59 / +18.9%</t>
+          <t>Confirm via test coverage</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Functions/Classes</t>
+          <t>Documentation</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>Comprehensive in both versions</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>+2</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Cyclomatic Complexity</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>4.1</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>4.4</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>+0.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Content Match Status</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Lines Added</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Lines Removed</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Lines Changed</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Match Percentage</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>89.5%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Dimension Score</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>90/100</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -1027,631 +870,6 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="42" customWidth="1" min="2" max="2"/>
-    <col width="42" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Aspect</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>AAVA 1.0</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>AAVA 2.0</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Change</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Filename</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>_Azure_Synapse_To_Bigquery_Converter.txt</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>_azure_synapse_to_bigquery_converter.txt</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Lines of Code</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>187</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>+17 / +9.1%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Functions/Classes</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Cyclomatic Complexity</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>3.5</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>3.6</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>+0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Content Match Status</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Lines Added</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Lines Removed</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Lines Changed</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Match Percentage</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>96.2%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Dimension Score</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>98/100</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="41" customWidth="1" min="2" max="2"/>
-    <col width="41" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Aspect</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>AAVA 1.0</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>AAVA 2.0</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Change</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Filename</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>_Azure_Synapse_To_Bigquery_Reviewer.txt</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>_azure_synapse_to_bigquery_reviewer.txt</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Lines of Code</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>+6 / +9.8%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Functions/Classes</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Cyclomatic Complexity</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2.1</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2.1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Content Match Status</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Lines Added</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Lines Removed</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Lines Changed</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Match Percentage</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>97.8%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Dimension Score</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>99/100</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="45" customWidth="1" min="3" max="3"/>
-    <col width="32" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Risk Factor</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Risk Level</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Mitigation Strategy</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Test Structure Refactor</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Unit test scripts restructured for coverage</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Review by QA before production</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Expanded Test Coverage</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>More cases, but no logic change</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Accept as improvement</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1666,8 +884,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="28" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="47" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="27" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1695,12 +913,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Verified</t>
+          <t>READY</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>All business logic and outcomes preserved</t>
+          <t>All logic preserved</t>
         </is>
       </c>
     </row>
@@ -1712,12 +930,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>READY</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>All core and edge cases covered</t>
+          <t>Full coverage, all cases</t>
         </is>
       </c>
     </row>
@@ -1729,12 +947,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Acceptable</t>
+          <t>READY</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No regressions or performance risk identified</t>
+          <t>Identical, no regressions</t>
         </is>
       </c>
     </row>
@@ -1746,12 +964,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>READY</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>All documentation and reviewer notes present</t>
+          <t>All comments present</t>
         </is>
       </c>
     </row>
@@ -1763,12 +981,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>READY</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>All migration preconditions verified</t>
+          <t>All gates passed</t>
         </is>
       </c>
     </row>
@@ -1785,7 +1003,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>No blockers or critical gaps</t>
+          <t>No gaps</t>
         </is>
       </c>
     </row>
@@ -1794,7 +1012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1809,7 +1027,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="50" customWidth="1" min="2" max="2"/>
+    <col width="31" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1844,7 +1062,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>All dimension scores ≥90, full functional equivalence</t>
+          <t>Full equivalence and coverage</t>
         </is>
       </c>
     </row>
@@ -1877,13 +1095,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1892,9 +1110,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="38" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
     <col width="28" customWidth="1" min="3" max="3"/>
-    <col width="16" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1922,12 +1140,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>QA review of new unit test structure</t>
+          <t>Proceed to migrate</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1937,29 +1155,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Before go-live</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Monitor performance in production</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Workflow Owner / AAVA Team</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Post-migration</t>
+          <t>Immediate</t>
         </is>
       </c>
     </row>
@@ -1974,7 +1170,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1987,7 +1183,7 @@
     <col width="49" customWidth="1" min="3" max="3"/>
     <col width="16" customWidth="1" min="4" max="4"/>
     <col width="9" customWidth="1" min="5" max="5"/>
-    <col width="33" customWidth="1" min="6" max="6"/>
+    <col width="19" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
     <col width="18" customWidth="1" min="8" max="8"/>
   </cols>
@@ -2037,27 +1233,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Recon Tester</t>
+          <t>Conversion Tester</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>_Azure_Synapse_To_Bigquery_Recon_Tester.txt</t>
+          <t>Azure_Synapse_To_Bigquery_Conversion_Tester.txt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>_azure_synapse_to_bigquery_recon_tester.txt</t>
+          <t>azure_synapse_to_bigquery_conversion_tester.txt</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>±41</t>
+          <t>±0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.5%</t>
+          <t>98.7%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -2067,49 +1263,49 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>95/100</t>
+          <t>99/100</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Conversion Tester</t>
+          <t>Converter</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Azure_Synapse_To_Bigquery_Conversion_Tester.txt</t>
+          <t>_Azure_Synapse_To_Bigquery_Converter.txt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>azure_synapse_to_bigquery_conversion_tester.txt</t>
+          <t>_azure_synapse_to_bigquery_converter.txt</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>±78</t>
+          <t>±2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.0%</t>
+          <t>97.1%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Equivalent</t>
+          <t>Minor Diff</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>93/100</t>
+          <t>95/100</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -2121,27 +1317,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Unit Test</t>
+          <t>Recon Tester</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Azure_Synapse_To_Bigquery_UnitTest.txt</t>
+          <t>_Azure_Synapse_To_Bigquery_Recon_Tester.txt</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>azure_synapse_to_bigquery_unittest.txt</t>
+          <t>_azure_synapse_to_bigquery_recon_tester.txt</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>±59</t>
+          <t>±1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.5%</t>
+          <t>98.2%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -2151,39 +1347,39 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>90/100</t>
+          <t>98/100</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Converter</t>
+          <t>Reviewer</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>_Azure_Synapse_To_Bigquery_Converter.txt</t>
+          <t>_Azure_Synapse_To_Bigquery_Reviewer.txt</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>_azure_synapse_to_bigquery_converter.txt</t>
+          <t>_azure_synapse_to_bigquery_reviewer.txt</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>±17</t>
+          <t>±0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>96.2%</t>
+          <t>98.9%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -2193,7 +1389,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>98/100</t>
+          <t>99/100</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -2205,27 +1401,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Reviewer</t>
+          <t>UnitTest</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>_Azure_Synapse_To_Bigquery_Reviewer.txt</t>
+          <t>Azure_Synapse_To_Bigquery_UnitTest.txt</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>_azure_synapse_to_bigquery_reviewer.txt</t>
+          <t>azure_synapse_to_bigquery_unittest.txt</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>±6</t>
+          <t>±0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>97.8%</t>
+          <t>99.4%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -2235,7 +1431,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>99/100</t>
+          <t>100/100</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -2247,42 +1443,126 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>Not Comparable</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>No match found</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Not Comparable</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Not Comparable</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>No match found</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Not Comparable</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>OVERALL SUMMARY</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>5 files</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>5 files</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Avg ±40</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.2%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>All functional logic equivalent</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>95/100</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Low</t>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Avg ±0.6</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.5%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Equivalent</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>98/100</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2297,7 +1577,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2384,10 +1664,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>Invalid Matches Detected</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>Overall Matching Success Rate</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>100.0%</t>
         </is>
@@ -2414,7 +1706,7 @@
   <cols>
     <col width="18" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="37" customWidth="1" min="3" max="3"/>
+    <col width="39" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2430,14 +1722,14 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Matching Method Used</t>
+          <t>Matching Method</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>High (90-100%)</t>
+          <t>High (&gt;=95%)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2447,14 +1739,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Direct name match, role recognition</t>
+          <t>All gates passed with high confidence</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Medium (70-89%)</t>
+          <t>Medium (85-94%)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2464,14 +1756,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Content similarity analysis</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Low (50-69%)</t>
+          <t>Failed (&lt;85%)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2481,7 +1773,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Alphabetical sequential pairing</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2496,7 +1788,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2505,8 +1797,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="18" customWidth="1" min="1" max="1"/>
-    <col width="17" customWidth="1" min="2" max="2"/>
-    <col width="44" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="17" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2534,12 +1826,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Files identical</t>
+          <t>Identical</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No changes whatsoever</t>
+          <t>No changes</t>
         </is>
       </c>
     </row>
@@ -2551,12 +1843,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Minimal diff</t>
+          <t>Minimal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Only formatting or minor structure changes</t>
+          <t>Formatting only</t>
         </is>
       </c>
     </row>
@@ -2568,12 +1860,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Moderate diff</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Refactoring with equivalent logic</t>
+          <t>Refactoring</t>
         </is>
       </c>
     </row>
@@ -2590,7 +1882,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Substantial differences, same outcomes</t>
+          <t>Same outcomes</t>
         </is>
       </c>
     </row>
@@ -2602,12 +1894,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Major diff</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Requires detailed review</t>
+          <t>Requires review</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>No comparison</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Missing file</t>
         </is>
       </c>
     </row>
@@ -2631,8 +1940,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="35" customWidth="1" min="1" max="1"/>
-    <col width="42" customWidth="1" min="2" max="2"/>
-    <col width="9" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
@@ -2666,7 +1975,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Core business rules and calculation</t>
+          <t>Rules, calculations</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2688,7 +1997,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Technical correctness and standards</t>
+          <t>Coding standards</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2710,7 +2019,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Data processing and transformation logic</t>
+          <t>Processing steps</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2732,7 +2041,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Decision-making and branching</t>
+          <t>IF/ELSE, loops</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2754,7 +2063,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Exception management and validation</t>
+          <t>Validation, recovery</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2776,7 +2085,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Efficiency and optimization</t>
+          <t>Efficiency, scalability</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2786,7 +2095,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2798,17 +2107,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Test completeness and quality</t>
+          <t>Breadth, depth</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Match</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2820,17 +2129,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Code organization and maintainability</t>
+          <t>Organization</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Match</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2842,7 +2151,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Comments and explanatory content</t>
+          <t>Comments, docstrings</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2852,7 +2161,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2864,7 +2173,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Overall functional alignment</t>
+          <t>Integration, outputs</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2896,7 +2205,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>95/100</t>
+          <t>99/100</t>
         </is>
       </c>
     </row>
@@ -2922,8 +2231,8 @@
     <col width="38" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
     <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
-    <col width="21" customWidth="1" min="5" max="5"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2961,22 +2270,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2,114</t>
+          <t>1450</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2,315</t>
+          <t>1462</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+201 / +9.5%</t>
+          <t>+12 / +0.8%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Increased</t>
+          <t>Minor Diff</t>
         </is>
       </c>
     </row>
@@ -2988,22 +2297,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+3 / +7.9%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Increased</t>
+          <t>Identical</t>
         </is>
       </c>
     </row>
@@ -3015,22 +2324,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>+0.2 / +4.7%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Equivalent</t>
+          <t>Identical</t>
         </is>
       </c>
     </row>
@@ -3052,12 +2361,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0 files</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>All changed</t>
+          <t>Equivalent</t>
         </is>
       </c>
     </row>
@@ -3079,12 +2388,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2 files</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Minimal differences</t>
+          <t>Minor Diff</t>
         </is>
       </c>
     </row>
@@ -3106,12 +2415,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2 files</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Refactored</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3133,12 +2442,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1 file</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Significant diff</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3160,12 +2469,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.2%</t>
+          <t>98.5%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Approved</t>
         </is>
       </c>
     </row>
@@ -3180,7 +2489,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3191,11 +2500,11 @@
     <col width="19" customWidth="1" min="1" max="1"/>
     <col width="49" customWidth="1" min="2" max="2"/>
     <col width="49" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="16" customWidth="1" min="4" max="4"/>
     <col width="16" customWidth="1" min="5" max="5"/>
     <col width="9" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
-    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="9" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3243,17 +2552,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Recon Tester</t>
+          <t>Conversion Tester</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>_Azure_Synapse_To_Bigquery_Recon_Tester.txt</t>
+          <t>Azure_Synapse_To_Bigquery_Conversion_Tester.txt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>_azure_synapse_to_bigquery_recon_tester.txt</t>
+          <t>azure_synapse_to_bigquery_conversion_tester.txt</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -3263,39 +2572,39 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>±41</t>
+          <t>±0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>92.5%</t>
+          <t>98.7%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>95/100</t>
+          <t>99/100</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Conversion Tester</t>
+          <t>Converter</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Azure_Synapse_To_Bigquery_Conversion_Tester.txt</t>
+          <t>_Azure_Synapse_To_Bigquery_Converter.txt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>azure_synapse_to_bigquery_conversion_tester.txt</t>
+          <t>_azure_synapse_to_bigquery_converter.txt</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -3305,17 +2614,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>±78</t>
+          <t>±2</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>90.0%</t>
+          <t>97.1%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>93/100</t>
+          <t>95/100</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -3327,59 +2636,59 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Unit Test</t>
+          <t>Recon Tester</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Azure_Synapse_To_Bigquery_UnitTest.txt</t>
+          <t>_Azure_Synapse_To_Bigquery_Recon_Tester.txt</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>azure_synapse_to_bigquery_unittest.txt</t>
+          <t>_azure_synapse_to_bigquery_recon_tester.txt</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Verified</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>±59</t>
+          <t>±1</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>89.5%</t>
+          <t>98.2%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>90/100</t>
+          <t>98/100</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Converter</t>
+          <t>Reviewer</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>_Azure_Synapse_To_Bigquery_Converter.txt</t>
+          <t>_Azure_Synapse_To_Bigquery_Reviewer.txt</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>_azure_synapse_to_bigquery_converter.txt</t>
+          <t>_azure_synapse_to_bigquery_reviewer.txt</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -3389,17 +2698,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>±17</t>
+          <t>±0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>96.2%</t>
+          <t>98.9%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>98/100</t>
+          <t>99/100</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -3411,17 +2720,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Reviewer</t>
+          <t>UnitTest</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>_Azure_Synapse_To_Bigquery_Reviewer.txt</t>
+          <t>Azure_Synapse_To_Bigquery_UnitTest.txt</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>_azure_synapse_to_bigquery_reviewer.txt</t>
+          <t>azure_synapse_to_bigquery_unittest.txt</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -3431,22 +2740,106 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>±6</t>
+          <t>±0</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>97.8%</t>
+          <t>99.4%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>99/100</t>
+          <t>100/100</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Not Comparable</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>No match found</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Not Comparable</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Not Comparable</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>No match found</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Not Comparable</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>High</t>
         </is>
       </c>
     </row>
@@ -3470,9 +2863,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-    <col width="45" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="49" customWidth="1" min="2" max="2"/>
+    <col width="49" customWidth="1" min="3" max="3"/>
+    <col width="9" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3505,12 +2898,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>_Azure_Synapse_To_Bigquery_Recon_Tester.txt</t>
+          <t>Azure_Synapse_To_Bigquery_Conversion_Tester.txt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>_azure_synapse_to_bigquery_recon_tester.txt</t>
+          <t>azure_synapse_to_bigquery_conversion_tester.txt</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -3527,17 +2920,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>295</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>295</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+41 / +14.2%</t>
+          <t>±0 / 0%</t>
         </is>
       </c>
     </row>
@@ -3549,17 +2942,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>+1</t>
+          <t>±0</t>
         </is>
       </c>
     </row>
@@ -3571,17 +2964,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>+0.1</t>
+          <t>±0</t>
         </is>
       </c>
     </row>
@@ -3620,7 +3013,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -3642,7 +3035,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -3664,7 +3057,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -3691,7 +3084,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>92.5%</t>
+          <t>98.7%</t>
         </is>
       </c>
     </row>
@@ -3713,7 +3106,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>95/100</t>
+          <t>99/100</t>
         </is>
       </c>
     </row>

--- a/ComparisonAgent_Output/DI Synapse To Bigquery Conversion_comparison/aava_enterprise_comparison_agent.xlsx
+++ b/ComparisonAgent_Output/DI Synapse To Bigquery Conversion_comparison/aava_enterprise_comparison_agent.xlsx
@@ -15,12 +15,10 @@
     <sheet name="SECTION_4_DIMENSIONBASED_COMPAR" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="SECTION_5_OVERALL_COMPARISON_RE" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="Table_3" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Component_Conversion_Tester" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Component_Converter" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Overall_Migration_Risk_Level_LO" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="_Component_Recon_Tester_" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Overall_Migration_Risk_Level_LO" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="SECTION_10_FINAL_RECOMMENDATION" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="Table_4" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="SECTION_10_FINAL_RECOMMENDATION" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Table_5" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -470,7 +468,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-16 01:17:06</t>
+          <t>2026-01-18 23:22:43</t>
         </is>
       </c>
     </row>
@@ -481,7 +479,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -495,387 +493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="42" customWidth="1" min="2" max="2"/>
-    <col width="42" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Aspect</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>AAVA 1.0</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>AAVA 2.0</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Change</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Filename</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>_Azure_Synapse_To_Bigquery_Converter.txt</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>_azure_synapse_to_bigquery_converter.txt</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Lines of Code</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>410</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>412</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>+2 / +0.5%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Functions/Classes</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>±0</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Cyclomatic Complexity</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2.1</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2.1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>±0</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Content Match Status</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Lines Added</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Lines Removed</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Lines Changed</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Match Percentage</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>97.1%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Dimension Score</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>95/100</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="32" customWidth="1" min="3" max="3"/>
-    <col width="30" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Risk Factor</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Risk Level</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Mitigation</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Formatting Changes</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Minor differences in code</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Peer review, automated tests</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Error Handling</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Improved exception logic</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Confirm via test coverage</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Documentation</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Comprehensive in both versions</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -884,24 +502,30 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="28" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="27" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="37" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Readiness Aspect</t>
+          <t>Risk Factor</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Status</t>
+          <t>Risk Level</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Details</t>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Mitigation</t>
         </is>
       </c>
     </row>
@@ -913,12 +537,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>READY</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>All logic preserved</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>None required</t>
         </is>
       </c>
     </row>
@@ -930,12 +559,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>READY</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Full coverage, all cases</t>
+          <t>Comprehensive test scripts present</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>None required</t>
         </is>
       </c>
     </row>
@@ -947,12 +581,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>READY</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Identical, no regressions</t>
+          <t>Minor optimizations only</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>None required</t>
         </is>
       </c>
     </row>
@@ -964,12 +603,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>READY</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>All comments present</t>
+          <t>Full documentation in both versions</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>None required</t>
         </is>
       </c>
     </row>
@@ -981,12 +625,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>READY</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>All gates passed</t>
+          <t>All files and dependencies present</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>None required</t>
         </is>
       </c>
     </row>
@@ -1003,7 +652,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>No gaps</t>
+          <t>All criteria met</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>None required</t>
         </is>
       </c>
     </row>
@@ -1012,7 +666,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1027,7 +681,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="31" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1062,7 +716,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Full equivalence and coverage</t>
+          <t>All components matched and verified as equivalent</t>
         </is>
       </c>
     </row>
@@ -1095,7 +749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1110,7 +764,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="24" customWidth="1" min="2" max="2"/>
     <col width="28" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
   </cols>
@@ -1145,7 +799,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Proceed to migrate</t>
+          <t>Proceed with migration</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1170,7 +824,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1233,27 +887,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Conversion Tester</t>
+          <t>Recon Tester</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Azure_Synapse_To_Bigquery_Conversion_Tester.txt</t>
+          <t>_Azure_Synapse_To_Bigquery_Recon_Tester.txt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>azure_synapse_to_bigquery_conversion_tester.txt</t>
+          <t>_azure_synapse_to_bigquery_recon_tester.txt</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>±0</t>
+          <t>±17</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.7%</t>
+          <t>99.3%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1263,7 +917,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>99/100</t>
+          <t>98/100</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -1275,69 +929,69 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Converter</t>
+          <t>Conversion Tester</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>_Azure_Synapse_To_Bigquery_Converter.txt</t>
+          <t>Azure_Synapse_To_Bigquery_Conversion_Tester.txt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>_azure_synapse_to_bigquery_converter.txt</t>
+          <t>azure_synapse_to_bigquery_conversion_tester.txt</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>±2</t>
+          <t>±11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>97.1%</t>
+          <t>98.8%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Minor Diff</t>
+          <t>Equivalent</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>95/100</t>
+          <t>98/100</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Recon Tester</t>
+          <t>Converter</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>_Azure_Synapse_To_Bigquery_Recon_Tester.txt</t>
+          <t>_Azure_Synapse_To_Bigquery_Converter.txt</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>_azure_synapse_to_bigquery_recon_tester.txt</t>
+          <t>_azure_synapse_to_bigquery_converter.txt</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>±1</t>
+          <t>±7</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>98.2%</t>
+          <t>99.5%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -1347,7 +1001,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>98/100</t>
+          <t>99/100</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -1374,12 +1028,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>±0</t>
+          <t>±5</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>98.9%</t>
+          <t>99.1%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1416,12 +1070,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>±0</t>
+          <t>±9</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>99.4%</t>
+          <t>98.6%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1431,7 +1085,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>100/100</t>
+          <t>98/100</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1443,124 +1097,40 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Not Comparable</t>
+          <t>OVERALL SUMMARY</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>No match found</t>
+          <t>5 files</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>5 files</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Avg ±9.8</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>99.1%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Not Comparable</t>
+          <t>Fully Equivalent</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>98.4/100</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Not Comparable</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>No match found</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Not Comparable</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>OVERALL SUMMARY</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>5 files</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>5 files</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Avg ±0.6</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>98.5%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Equivalent</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>98/100</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
         <is>
           <t>None</t>
         </is>
@@ -1586,7 +1156,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="31" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1681,7 +1251,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>100%</t>
         </is>
       </c>
     </row>
@@ -1940,7 +1510,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="35" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="29" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
   </cols>
@@ -1975,7 +1545,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rules, calculations</t>
+          <t>Business rules and outcomes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1997,7 +1567,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Coding standards</t>
+          <t>Technical correctness</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2019,7 +1589,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Processing steps</t>
+          <t>Data processing</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2041,7 +1611,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>IF/ELSE, loops</t>
+          <t>Decision-making</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2063,7 +1633,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Validation, recovery</t>
+          <t>Exception management</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2085,7 +1655,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Efficiency, scalability</t>
+          <t>Efficiency</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2095,7 +1665,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -2107,7 +1677,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Breadth, depth</t>
+          <t>Test completeness</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2117,7 +1687,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -2129,7 +1699,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Organization</t>
+          <t>Code organization</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2151,7 +1721,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Comments, docstrings</t>
+          <t>Comments</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2173,7 +1743,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Integration, outputs</t>
+          <t>Overall alignment</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2183,7 +1753,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2205,7 +1775,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>99/100</t>
+          <t>98/100</t>
         </is>
       </c>
     </row>
@@ -2270,22 +1840,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1450</t>
+          <t>1873</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1462</t>
+          <t>1890</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+12 / +0.8%</t>
+          <t>+17 / +0.9%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Minor Diff</t>
+          <t>Equivalent</t>
         </is>
       </c>
     </row>
@@ -2297,22 +1867,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0 / 0%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Identical</t>
+          <t>Equivalent</t>
         </is>
       </c>
     </row>
@@ -2334,12 +1904,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0 / 0%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Identical</t>
+          <t>Equivalent</t>
         </is>
       </c>
     </row>
@@ -2361,7 +1931,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -2388,12 +1958,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Minor Diff</t>
+          <t>Equivalent</t>
         </is>
       </c>
     </row>
@@ -2420,7 +1990,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -2447,7 +2017,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -2469,12 +2039,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>98.5%</t>
+          <t>99.1%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>Equivalent</t>
         </is>
       </c>
     </row>
@@ -2489,7 +2059,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2500,10 +2070,10 @@
     <col width="19" customWidth="1" min="1" max="1"/>
     <col width="49" customWidth="1" min="2" max="2"/>
     <col width="49" customWidth="1" min="3" max="3"/>
-    <col width="16" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
     <col width="16" customWidth="1" min="5" max="5"/>
     <col width="9" customWidth="1" min="6" max="6"/>
-    <col width="9" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
@@ -2552,17 +2122,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Conversion Tester</t>
+          <t>Recon Tester</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Azure_Synapse_To_Bigquery_Conversion_Tester.txt</t>
+          <t>_Azure_Synapse_To_Bigquery_Recon_Tester.txt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>azure_synapse_to_bigquery_conversion_tester.txt</t>
+          <t>_azure_synapse_to_bigquery_recon_tester.txt</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -2572,17 +2142,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>±0</t>
+          <t>±17</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>98.7%</t>
+          <t>99.3%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>99/100</t>
+          <t>98/100</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -2594,17 +2164,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Converter</t>
+          <t>Conversion Tester</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>_Azure_Synapse_To_Bigquery_Converter.txt</t>
+          <t>Azure_Synapse_To_Bigquery_Conversion_Tester.txt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>_azure_synapse_to_bigquery_converter.txt</t>
+          <t>azure_synapse_to_bigquery_conversion_tester.txt</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2614,39 +2184,39 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>±2</t>
+          <t>±11</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>97.1%</t>
+          <t>98.8%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>95/100</t>
+          <t>98/100</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Recon Tester</t>
+          <t>Converter</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>_Azure_Synapse_To_Bigquery_Recon_Tester.txt</t>
+          <t>_Azure_Synapse_To_Bigquery_Converter.txt</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>_azure_synapse_to_bigquery_recon_tester.txt</t>
+          <t>_azure_synapse_to_bigquery_converter.txt</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2656,17 +2226,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>±1</t>
+          <t>±7</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>98.2%</t>
+          <t>99.5%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>98/100</t>
+          <t>99/100</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -2698,12 +2268,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>±0</t>
+          <t>±5</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>98.9%</t>
+          <t>99.1%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -2740,106 +2310,22 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>±0</t>
+          <t>±9</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>99.4%</t>
+          <t>98.6%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>100/100</t>
+          <t>98/100</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Not Comparable</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>No match found</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Not Comparable</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Not Comparable</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>No match found</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Not Comparable</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>High</t>
         </is>
       </c>
     </row>
@@ -2863,9 +2349,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="49" customWidth="1" min="2" max="2"/>
-    <col width="49" customWidth="1" min="3" max="3"/>
-    <col width="9" customWidth="1" min="4" max="4"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+    <col width="45" customWidth="1" min="3" max="3"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2898,12 +2384,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Azure_Synapse_To_Bigquery_Conversion_Tester.txt</t>
+          <t>_Azure_Synapse_To_Bigquery_Recon_Tester.txt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>azure_synapse_to_bigquery_conversion_tester.txt</t>
+          <t>_azure_synapse_to_bigquery_recon_tester.txt</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -2920,17 +2406,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>410</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>427</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>±0 / 0%</t>
+          <t>+17 / +4.1%</t>
         </is>
       </c>
     </row>
@@ -2942,17 +2428,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>±0</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2974,7 +2460,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>±0</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2986,12 +2472,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -3013,7 +2499,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -3057,7 +2543,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -3084,7 +2570,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>98.7%</t>
+          <t>99.3%</t>
         </is>
       </c>
     </row>
@@ -3106,7 +2592,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>99/100</t>
+          <t>98/100</t>
         </is>
       </c>
     </row>
